--- a/TestSuites/UploadExcel/TD_STEP-JC.xlsx
+++ b/TestSuites/UploadExcel/TD_STEP-JC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VIAX_Robot\VIAX_Robot\TestSuites\UploadExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\TestSuites\UploadExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580E4825-4619-4C39-BA0D-6B3B05F4FEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC15AED5-264A-4211-AE26-71AB828F6969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
